--- a/master.xlsx
+++ b/master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ukish\Desktop\GPT\estimate_app_web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ukish\マイドライブ（ukishohiro@gmail.com）\GPT\estimate_app_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0D1780-CF5D-481D-BCF8-F0BE9D01358D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBB8462-9790-41A8-B4D1-097D37048D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-16110" windowWidth="25820" windowHeight="16220" tabRatio="891" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4150" yWindow="-11370" windowWidth="19200" windowHeight="11250" tabRatio="891" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="得意先一覧" sheetId="1" r:id="rId1"/>
@@ -2031,13 +2031,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>幅</t>
-    <rPh sb="0" eb="1">
-      <t>ハバ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>製品名</t>
     <rPh sb="0" eb="3">
       <t>セイヒンメイ</t>
@@ -2246,6 +2239,16 @@
       <t>ボウチュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原反幅(mm)</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンタン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -6459,7 +6462,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B2">
         <v>348000</v>
@@ -6506,7 +6509,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B3">
         <v>271000</v>
@@ -7141,7 +7144,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B10">
         <v>53000</v>
@@ -7203,7 +7206,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B11">
         <v>53000</v>
@@ -7265,7 +7268,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B12">
         <v>70200</v>
@@ -7297,7 +7300,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B13">
         <v>70200</v>
@@ -8890,7 +8893,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B2">
         <v>2200</v>
@@ -9291,7 +9294,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B2">
         <v>3200</v>
@@ -9348,7 +9351,7 @@
         <v>472</v>
       </c>
       <c r="B1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C1" t="s">
         <v>436</v>
@@ -9419,7 +9422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C138"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -9446,7 +9449,7 @@
         <v>356</v>
       </c>
       <c r="B2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -9454,7 +9457,7 @@
         <v>356</v>
       </c>
       <c r="B3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -9462,7 +9465,7 @@
         <v>356</v>
       </c>
       <c r="B4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -9470,7 +9473,7 @@
         <v>356</v>
       </c>
       <c r="B5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -9478,7 +9481,7 @@
         <v>356</v>
       </c>
       <c r="B6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -9486,7 +9489,7 @@
         <v>356</v>
       </c>
       <c r="B7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -9494,7 +9497,7 @@
         <v>356</v>
       </c>
       <c r="B8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -9502,7 +9505,7 @@
         <v>356</v>
       </c>
       <c r="B9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -9510,7 +9513,7 @@
         <v>356</v>
       </c>
       <c r="B10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -9518,7 +9521,7 @@
         <v>356</v>
       </c>
       <c r="B11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -9526,7 +9529,7 @@
         <v>356</v>
       </c>
       <c r="B12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -9534,7 +9537,7 @@
         <v>356</v>
       </c>
       <c r="B13" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -9542,7 +9545,7 @@
         <v>356</v>
       </c>
       <c r="B14" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -9550,7 +9553,7 @@
         <v>356</v>
       </c>
       <c r="B15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -9558,7 +9561,7 @@
         <v>356</v>
       </c>
       <c r="B16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -9566,7 +9569,7 @@
         <v>356</v>
       </c>
       <c r="B17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -9574,7 +9577,7 @@
         <v>356</v>
       </c>
       <c r="B18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -9582,7 +9585,7 @@
         <v>356</v>
       </c>
       <c r="B19" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -9590,7 +9593,7 @@
         <v>356</v>
       </c>
       <c r="B20" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -9598,7 +9601,7 @@
         <v>356</v>
       </c>
       <c r="B21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -9606,7 +9609,7 @@
         <v>356</v>
       </c>
       <c r="B22" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -9614,7 +9617,7 @@
         <v>356</v>
       </c>
       <c r="B23" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -9622,7 +9625,7 @@
         <v>356</v>
       </c>
       <c r="B24" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -9630,7 +9633,7 @@
         <v>356</v>
       </c>
       <c r="B25" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -9638,7 +9641,7 @@
         <v>356</v>
       </c>
       <c r="B26" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -9646,7 +9649,7 @@
         <v>356</v>
       </c>
       <c r="B27" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -9654,7 +9657,7 @@
         <v>356</v>
       </c>
       <c r="B28" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -9662,7 +9665,7 @@
         <v>356</v>
       </c>
       <c r="B29" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -9670,7 +9673,7 @@
         <v>356</v>
       </c>
       <c r="B30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -9678,7 +9681,7 @@
         <v>356</v>
       </c>
       <c r="B31" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -9686,7 +9689,7 @@
         <v>356</v>
       </c>
       <c r="B32" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -9694,7 +9697,7 @@
         <v>356</v>
       </c>
       <c r="B33" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -9702,7 +9705,7 @@
         <v>356</v>
       </c>
       <c r="B34" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -9710,7 +9713,7 @@
         <v>356</v>
       </c>
       <c r="B35" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -9718,7 +9721,7 @@
         <v>356</v>
       </c>
       <c r="B36" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -9726,7 +9729,7 @@
         <v>356</v>
       </c>
       <c r="B37" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -9734,7 +9737,7 @@
         <v>356</v>
       </c>
       <c r="B38" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -9742,7 +9745,7 @@
         <v>356</v>
       </c>
       <c r="B39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -9750,7 +9753,7 @@
         <v>356</v>
       </c>
       <c r="B40" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -9758,7 +9761,7 @@
         <v>356</v>
       </c>
       <c r="B41" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -9766,7 +9769,7 @@
         <v>356</v>
       </c>
       <c r="B42" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -9774,7 +9777,7 @@
         <v>356</v>
       </c>
       <c r="B43" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -9782,7 +9785,7 @@
         <v>356</v>
       </c>
       <c r="B44" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -9790,7 +9793,7 @@
         <v>356</v>
       </c>
       <c r="B45" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -9798,7 +9801,7 @@
         <v>356</v>
       </c>
       <c r="B46" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -10823,8 +10826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E0D23E-7BCC-4F43-8E16-AD6BED9E57D3}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -10834,13 +10837,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B1" t="s">
         <v>524</v>
       </c>
       <c r="C1" t="s">
-        <v>525</v>
+        <v>576</v>
       </c>
       <c r="D1" t="s">
         <v>482</v>
@@ -10848,7 +10851,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B2">
         <v>0.3</v>
@@ -10860,12 +10863,12 @@
         <v>1235</v>
       </c>
       <c r="F2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -10877,12 +10880,12 @@
         <v>1600</v>
       </c>
       <c r="F3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B4">
         <v>0.3</v>
@@ -10894,12 +10897,12 @@
         <v>1100</v>
       </c>
       <c r="F4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B5">
         <v>0.3</v>
@@ -10911,12 +10914,12 @@
         <v>910</v>
       </c>
       <c r="F5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B6">
         <v>0.75</v>
@@ -10928,12 +10931,12 @@
         <v>3190</v>
       </c>
       <c r="F6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B7">
         <v>0.55000000000000004</v>
@@ -10945,12 +10948,12 @@
         <v>2360</v>
       </c>
       <c r="F7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B8">
         <v>0.52</v>
@@ -10962,12 +10965,12 @@
         <v>6120</v>
       </c>
       <c r="F8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B9">
         <v>0.52</v>
@@ -10979,12 +10982,12 @@
         <v>2771</v>
       </c>
       <c r="F9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B10">
         <v>0.52</v>
@@ -10996,12 +10999,12 @@
         <v>3023</v>
       </c>
       <c r="F10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B11">
         <v>0.5</v>
@@ -11013,12 +11016,12 @@
         <v>1749</v>
       </c>
       <c r="F11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B12">
         <v>0.35</v>
@@ -11030,12 +11033,12 @@
         <v>1089</v>
       </c>
       <c r="F12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B13">
         <v>0.5</v>
@@ -11047,12 +11050,12 @@
         <v>1900</v>
       </c>
       <c r="F13" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B14">
         <v>0.3</v>
@@ -11064,12 +11067,12 @@
         <v>1720</v>
       </c>
       <c r="F14" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B15">
         <v>0.3</v>
@@ -11081,12 +11084,12 @@
         <v>910</v>
       </c>
       <c r="F15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B16">
         <v>0.3</v>
@@ -11098,12 +11101,12 @@
         <v>910</v>
       </c>
       <c r="F16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B17">
         <v>0.5</v>
@@ -11115,12 +11118,12 @@
         <v>1520</v>
       </c>
       <c r="F17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B18">
         <v>0.3</v>
@@ -11132,12 +11135,12 @@
         <v>1820</v>
       </c>
       <c r="F18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B19">
         <v>0.3</v>
@@ -11149,12 +11152,12 @@
         <v>2500</v>
       </c>
       <c r="F19" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B20">
         <v>0.8</v>
@@ -11166,12 +11169,12 @@
         <v>1960</v>
       </c>
       <c r="F20" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B21">
         <v>0.3</v>
@@ -11183,12 +11186,12 @@
         <v>13700</v>
       </c>
       <c r="F21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B22">
         <v>0.35</v>
@@ -11200,12 +11203,12 @@
         <v>760</v>
       </c>
       <c r="F22" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B23">
         <v>0.5</v>
@@ -11217,12 +11220,12 @@
         <v>1740</v>
       </c>
       <c r="F23" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -11234,12 +11237,12 @@
         <v>3640</v>
       </c>
       <c r="F24" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B25">
         <v>0.3</v>
@@ -11251,12 +11254,12 @@
         <v>1090</v>
       </c>
       <c r="F25" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B26">
         <v>0.3</v>
@@ -11268,12 +11271,12 @@
         <v>1660</v>
       </c>
       <c r="F26" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B27">
         <v>0.3</v>
@@ -11285,12 +11288,12 @@
         <v>860</v>
       </c>
       <c r="F27" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B28">
         <v>0.5</v>
@@ -11302,12 +11305,12 @@
         <v>2270</v>
       </c>
       <c r="F28" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B29">
         <v>0.75</v>
@@ -11319,12 +11322,12 @@
         <v>3630</v>
       </c>
       <c r="F29" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B30">
         <v>0.3</v>
@@ -11336,12 +11339,12 @@
         <v>480</v>
       </c>
       <c r="F30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B31">
         <v>0.3</v>
@@ -11353,12 +11356,12 @@
         <v>380</v>
       </c>
       <c r="F31" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B32">
         <v>0.28000000000000003</v>
@@ -11370,12 +11373,12 @@
         <v>2640</v>
       </c>
       <c r="F32" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B33">
         <v>0.27</v>
@@ -11387,12 +11390,12 @@
         <v>3290</v>
       </c>
       <c r="F33" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B34">
         <v>0.27</v>
@@ -11404,12 +11407,12 @@
         <v>3560</v>
       </c>
       <c r="F34" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B35">
         <v>455</v>
@@ -11421,12 +11424,12 @@
         <v>1380</v>
       </c>
       <c r="F35" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B36">
         <v>455</v>
@@ -11438,12 +11441,12 @@
         <v>1400</v>
       </c>
       <c r="F36" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B37">
         <v>400</v>
@@ -11455,12 +11458,12 @@
         <v>1400</v>
       </c>
       <c r="F37" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B38">
         <v>470</v>
@@ -11472,12 +11475,12 @@
         <v>1450</v>
       </c>
       <c r="F38" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B39">
         <v>530</v>
@@ -11489,12 +11492,12 @@
         <v>2220</v>
       </c>
       <c r="F39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B40">
         <v>170</v>
@@ -11506,12 +11509,12 @@
         <v>790</v>
       </c>
       <c r="F40" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B41">
         <v>110</v>
@@ -11523,12 +11526,12 @@
         <v>570</v>
       </c>
       <c r="F41" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B42">
         <v>170</v>
@@ -11540,12 +11543,12 @@
         <v>680</v>
       </c>
       <c r="F42" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B43">
         <v>130</v>
@@ -11557,12 +11560,12 @@
         <v>500</v>
       </c>
       <c r="F43" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B44">
         <v>0.52</v>
@@ -11571,12 +11574,12 @@
         <v>2030</v>
       </c>
       <c r="F44" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B45">
         <v>0.52</v>
@@ -11585,12 +11588,12 @@
         <v>2030</v>
       </c>
       <c r="F45" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B46">
         <v>0.52</v>
@@ -11599,7 +11602,7 @@
         <v>2030</v>
       </c>
       <c r="F46" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -11621,7 +11624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -11660,7 +11663,7 @@
         <v>398</v>
       </c>
       <c r="B4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -19376,7 +19379,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -19493,7 +19496,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">

--- a/master.xlsx
+++ b/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ukish\マイドライブ（ukishohiro@gmail.com）\GPT\estimate_app_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBB8462-9790-41A8-B4D1-097D37048D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770476B9-D6F9-4A1D-9D5F-D40D4DB6E623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4150" yWindow="-11370" windowWidth="19200" windowHeight="11250" tabRatio="891" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10824,10 +10824,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E0D23E-7BCC-4F43-8E16-AD6BED9E57D3}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -11573,6 +11573,9 @@
       <c r="C44">
         <v>2030</v>
       </c>
+      <c r="D44">
+        <v>4000</v>
+      </c>
       <c r="F44" t="s">
         <v>541</v>
       </c>
@@ -11587,6 +11590,9 @@
       <c r="C45">
         <v>2030</v>
       </c>
+      <c r="D45">
+        <v>2000</v>
+      </c>
       <c r="F45" t="s">
         <v>542</v>
       </c>
@@ -11601,16 +11607,11 @@
       <c r="C46">
         <v>2030</v>
       </c>
+      <c r="D46">
+        <v>2000</v>
+      </c>
       <c r="F46" t="s">
         <v>543</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B47">
-        <v>0.8</v>
-      </c>
-      <c r="C47">
-        <v>1850</v>
       </c>
     </row>
   </sheetData>
